--- a/Liste_Partitions.xlsx
+++ b/Liste_Partitions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="177">
   <si>
     <t xml:space="preserve">titre</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">style</t>
   </si>
   <si>
+    <t xml:space="preserve">harmo</t>
+  </si>
+  <si>
     <t xml:space="preserve">fichier</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t xml:space="preserve">Irlandais</t>
   </si>
   <si>
+    <t xml:space="preserve">Diato</t>
+  </si>
+  <si>
     <t xml:space="preserve">Swallowtail_Jig.pdf</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t xml:space="preserve">Jazz / Chanson</t>
   </si>
   <si>
+    <t xml:space="preserve">Diato – Chroma</t>
+  </si>
+  <si>
     <t xml:space="preserve">Somewhere_Over_the_Rainbow__Harold_Arlen.pdf</t>
   </si>
   <si>
@@ -160,6 +169,9 @@
     <t xml:space="preserve">Richard Rodgers &amp; Lorenz Hart</t>
   </si>
   <si>
+    <t xml:space="preserve">Chroma</t>
+  </si>
+  <si>
     <t xml:space="preserve">My_funny_valentine_A.pdf</t>
   </si>
   <si>
@@ -518,6 +530,27 @@
   </si>
   <si>
     <t xml:space="preserve">video-score_Voyage_voyage__Desireless.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Walter Horton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video-score_Easy.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Red River Valley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The_red_river_valley.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video-score_The_red_river_valley.mp4</t>
   </si>
 </sst>
 </file>
@@ -631,20 +664,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -663,694 +696,861 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>94</v>
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>135</v>
+        <v>49</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
